--- a/Data/RSPB_data_filtered/RSPB_Data_2000-01_JAN01.xlsx
+++ b/Data/RSPB_data_filtered/RSPB_Data_2000-01_JAN01.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\injg1\Desktop\RSPB Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS_CURRENT\SNH_Moray_Firth\SNH_Moray_Firth\Data\RSPB_data_filtered\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3C71A-9267-42B9-BA12-97715AF1A2AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10890"/>
+    <workbookView xWindow="2145" yWindow="3450" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outer_Dornoch_Firth" sheetId="6" r:id="rId1"/>
     <sheet name="Inverness_Beauly_Firth" sheetId="10" r:id="rId2"/>
-    <sheet name="Nairn_Culbin_Bars " sheetId="14" r:id="rId3"/>
+    <sheet name="Nairn_Culbin_Bars" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
   <si>
     <t>Inver</t>
   </si>
@@ -228,9 +239,6 @@
   </si>
   <si>
     <t>Fort George</t>
-  </si>
-  <si>
-    <t>W 1-2</t>
   </si>
   <si>
     <t>Golspie Golf Course</t>
@@ -272,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -784,11 +792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -797,10 +805,9 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
@@ -808,55 +815,52 @@
         <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>44</v>
       </c>
@@ -908,11 +912,8 @@
       <c r="Q2" s="15">
         <v>36896</v>
       </c>
-      <c r="R2" s="15">
-        <v>36899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -964,11 +965,8 @@
       <c r="Q3" s="10">
         <v>0.39583333333333331</v>
       </c>
-      <c r="R3" s="10">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -1020,11 +1018,8 @@
       <c r="Q4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1076,11 +1071,8 @@
       <c r="Q5" s="16">
         <v>8</v>
       </c>
-      <c r="R5" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
@@ -1132,11 +1124,8 @@
       <c r="Q6" s="16">
         <v>1</v>
       </c>
-      <c r="R6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -1188,11 +1177,8 @@
       <c r="Q7" s="16">
         <v>1</v>
       </c>
-      <c r="R7" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
@@ -1244,11 +1230,8 @@
       <c r="Q8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,9 +1259,8 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,9 +1284,8 @@
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1328,9 +1309,8 @@
       <c r="Q11" s="1">
         <v>2</v>
       </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1352,9 +1332,8 @@
       <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,9 +1353,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1396,9 +1374,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1418,9 +1395,8 @@
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1440,9 +1416,8 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,9 +1437,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1498,11 +1472,8 @@
         <v>4</v>
       </c>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1522,9 +1493,8 @@
       <c r="O19" s="1"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1546,9 +1516,8 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1568,9 +1537,8 @@
       <c r="O21" s="1"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1594,9 +1562,8 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1616,9 +1583,8 @@
       <c r="O23" s="1"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,9 +1604,8 @@
       <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1662,9 +1627,8 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,9 +1648,8 @@
       <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1706,9 +1669,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -1728,11 +1690,8 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -1764,11 +1723,8 @@
       <c r="Q29" s="1">
         <v>1</v>
       </c>
-      <c r="R29" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1794,9 +1750,8 @@
         <v>1</v>
       </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -1816,11 +1771,8 @@
       <c r="O31" s="1"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,9 +1798,8 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1868,9 +1819,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1890,9 +1840,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -1912,9 +1861,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1934,11 +1882,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1970,11 +1915,8 @@
       <c r="Q37" s="1">
         <v>31</v>
       </c>
-      <c r="R37" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2020,9 +1962,8 @@
       <c r="Q38" s="1">
         <v>60</v>
       </c>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2046,9 +1987,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2074,9 +2014,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
@@ -2094,9 +2033,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -2114,9 +2052,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
@@ -2134,9 +2071,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
@@ -2154,9 +2090,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
@@ -2174,9 +2109,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.59" right="0.39" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2185,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,11 +3495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
